--- a/public/file/template_participants.xlsx
+++ b/public/file/template_participants.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Freelancer\Assesment\Baru\AssessmentBaru-main\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TA\assessment2020\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F3D02D-291F-4654-8FCF-542DE9CE1D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{635F6863-CDD2-4F4F-A84C-CA7C1B7D0D10}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t xml:space="preserve">Assesse Name </t>
   </si>
@@ -43,12 +45,33 @@
   </si>
   <si>
     <t>Group</t>
+  </si>
+  <si>
+    <t>DANTI PUJI YUHERISNA</t>
+  </si>
+  <si>
+    <t>Super Admin</t>
+  </si>
+  <si>
+    <t>Peer</t>
+  </si>
+  <si>
+    <t>ARIEF RYAN RISBAYA</t>
+  </si>
+  <si>
+    <t>danti@gmail.com</t>
+  </si>
+  <si>
+    <t>superadmin@mail.com</t>
+  </si>
+  <si>
+    <t>ariefryanrisbaya@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,6 +150,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet2"/>
+      <sheetName val="database"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v xml:space="preserve">Assesse Name </v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,24 +471,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743EA568-521B-4550-88E8-958651C84E6F}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,9 +506,67 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]database!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]database!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A3 C2:C3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>